--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -72,10 +72,10 @@
     <t>7 hours</t>
   </si>
   <si>
-    <t>8 hours</t>
-  </si>
-  <si>
     <t>عمل نحسينات للكود و ال API</t>
+  </si>
+  <si>
+    <t>16 hours</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A2:E42"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
